--- a/Dashboards-test/FOLDIN.xlsx
+++ b/Dashboards-test/FOLDIN.xlsx
@@ -18,15 +18,15 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="DatesXP_tpl" localSheetId="0">'XP Per Day'!$E$1:$E$1</x:definedName>
-    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$65</x:definedName>
+    <x:definedName name="PlayersXP_tpl" localSheetId="0">'XP Per Day'!$A$2:$E$70</x:definedName>
     <x:definedName name="PlayersXP_XP_tpl" localSheetId="0">'XP Per Day'!$E$2:$E$2</x:definedName>
     <x:definedName name="DatesKDR_tpl" localSheetId="1">'KDR Per Day'!$D$1:$D$1</x:definedName>
-    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$65</x:definedName>
+    <x:definedName name="PlayersKDR_tpl" localSheetId="1">'KDR Per Day'!$A$2:$D$70</x:definedName>
     <x:definedName name="PlayersKDR_KDR_tpl" localSheetId="1">'KDR Per Day'!$D$2:$D$2</x:definedName>
     <x:definedName name="DatesKDR">'KDR Per Day'!$D$1:$Q$1</x:definedName>
     <x:definedName name="DatesXP">'XP Per Day'!$E$1:$R$1</x:definedName>
-    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$65</x:definedName>
-    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$P$65</x:definedName>
+    <x:definedName name="PlayersKDR">'KDR Per Day'!$A$2:$Q$70</x:definedName>
+    <x:definedName name="PlayersXP">'XP Per Day'!$A$2:$R$70</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="191029"/>
   <x:extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -58,7 +58,13 @@
     <x:t>Total XP</x:t>
   </x:si>
   <x:si>
-    <x:t>Jason12345</x:t>
+    <x:t>hAzIs2Here</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dev1ce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zathura</x:t>
   </x:si>
   <x:si>
     <x:t>MATHIASCRACK</x:t>
@@ -70,9 +76,6 @@
     <x:t>AR_16</x:t>
   </x:si>
   <x:si>
-    <x:t>Doctor Surviv</x:t>
-  </x:si>
-  <x:si>
     <x:t>Vivan agrawal</x:t>
   </x:si>
   <x:si>
@@ -88,48 +91,60 @@
     <x:t>mr 1234</x:t>
   </x:si>
   <x:si>
+    <x:t>mushroom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELEMINATOR</x:t>
+  </x:si>
+  <x:si>
     <x:t>zip</x:t>
   </x:si>
   <x:si>
     <x:t>legendmaster</x:t>
   </x:si>
   <x:si>
-    <x:t>mushroom</x:t>
+    <x:t>Fflzip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lolipop--</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vinhieu123abcd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProTanker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floding chair</x:t>
   </x:si>
   <x:si>
     <x:t>Ty Phu Don Vn</x:t>
   </x:si>
   <x:si>
-    <x:t>Fflzip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lolipop--</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vinhieu123abcd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Floding chair</x:t>
-  </x:si>
-  <x:si>
     <x:t>fayek123</x:t>
   </x:si>
   <x:si>
     <x:t>Nilo</x:t>
   </x:si>
   <x:si>
+    <x:t>KickOnur09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Annihilation</x:t>
+  </x:si>
+  <x:si>
     <x:t>Angle7 YT</x:t>
   </x:si>
   <x:si>
     <x:t>CRITOS</x:t>
   </x:si>
   <x:si>
-    <x:t>Annihilation</x:t>
-  </x:si>
-  <x:si>
     <x:t>ihasmelee</x:t>
   </x:si>
   <x:si>
+    <x:t>StormBoy</x:t>
+  </x:si>
+  <x:si>
     <x:t>FoldingChair</x:t>
   </x:si>
   <x:si>
@@ -244,213 +259,276 @@
     <x:t>Lolipop-</x:t>
   </x:si>
   <x:si>
-    <x:t>ProTanker</x:t>
+    <x:t>eugene_kai</x:t>
   </x:si>
   <x:si>
     <x:t>Average KDR</x:t>
   </x:si>
   <x:si>
-    <x:t>3,9 (1676/429)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,7 (42/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (14/8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,3 (123/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (293/97)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,9 (142/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (222/71)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1 (227/73)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,8 (43/9)</x:t>
+    <x:t>10,7 (2636/246)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,0 (60/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,0 (105/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10,3 (359/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,5 (7/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,4 (103/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,6 (707/56)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,5 (239/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23,8 (95/4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9,3 (121/13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13,4 (429/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,2 (304/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8,9 (107/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (98/36)</x:t>
   </x:si>
   <x:si>
     <x:t>- (/)</x:t>
   </x:si>
   <x:si>
-    <x:t>6,1 (55/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (313/71)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,8 (202/35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4 (437/183)</x:t>
+    <x:t>2,0 (2/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,7 (96/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (857/375)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (12/14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,4 (6/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,2 (54/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3 (10/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (48/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,7 (11/3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (516/201)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (92/41)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (94/42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (14/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (785/350)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (165/82)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (46/24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11,0 (22/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,8 (28/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (31/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (16/12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,4 (48/11)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (29/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (10/5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (113/43)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,6 (82/32)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (140/60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (55/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (585/267)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (240/119)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (345/148)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (20/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (506/259)</x:t>
   </x:si>
   <x:si>
     <x:t>3,6 (89/25)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,0 (0/0)</x:t>
-  </x:si>
-  <x:si>
     <x:t>2,7 (115/43)</x:t>
   </x:si>
   <x:si>
     <x:t>2,6 (142/54)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (55/36)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,0 (9/9)</x:t>
   </x:si>
   <x:si>
     <x:t>1,7 (27/16)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,3 (749/322)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (12/14)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,4 (6/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,2 (54/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,3 (10/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (48/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (11/3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (516/201)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (92/41)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (590/254)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (165/82)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (46/24)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11,0 (22/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,8 (28/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (31/15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (16/12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,4 (48/11)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (29/18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (10/5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (113/43)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,6 (82/32)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (901/447)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (21/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (201/102)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (1/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (57/30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (162/56)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (208/133)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,1 (19/9)</x:t>
+    <x:t>0,9 (69/76)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (735/387)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (14/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,0 (3/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2 (141/64)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (102/35)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (181/125)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (110/61)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3 (23/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (158/80)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (3/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (308/166)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (118/59)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (53/22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (137/85)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (28/16)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (18/10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (10/6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (1769/1079)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (37/23)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (35/22)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,0 (95/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (204/151)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (41/45)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (162/98)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,9 (49/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (265/158)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,7 (202/119)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (471/297)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,1 (208/101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (790/482)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (30/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (144/114)</x:t>
   </x:si>
   <x:si>
     <x:t>4,0 (4/1)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,7 (81/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (24/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,7 (123/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (20/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (574/305)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (14/9)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0 (3/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2 (141/64)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (102/35)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (181/125)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (110/61)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3 (23/10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (695/405)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (30/21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (144/114)</x:t>
-  </x:si>
-  <x:si>
     <x:t>2,6 (85/33)</x:t>
   </x:si>
   <x:si>
@@ -463,6 +541,12 @@
     <x:t>1,2 (79/67)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,1 (53/48)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (42/29)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,6 (378/235)</x:t>
   </x:si>
   <x:si>
@@ -475,36 +559,6 @@
     <x:t>1,7 (104/60)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,6 (1090/681)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (37/23)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (35/22)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0 (95/48)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (204/151)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (41/45)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (162/98)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,9 (49/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (265/158)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,7 (202/119)</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,5 (104/69)</x:t>
   </x:si>
   <x:si>
@@ -520,7 +574,112 @@
     <x:t>1,0 (28/27)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,5 (112/77)</x:t>
+    <x:t>1,4 (261/184)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (202/130)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (59/54)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (445/329)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (915/697)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,0 (0/1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (175/133)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (156/125)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (152/148)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (99/82)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (141/88)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (128/93)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4 (64/27)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (411/316)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (18/21)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (54/60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,8 (51/29)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (17/18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,9 (73/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (26/17)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (73/58)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5 (84/57)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,5 (1/2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (14/15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (419/372)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (52/36)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (129/102)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,3 (55/42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (22/25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (161/167)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (191/175)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (130/127)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7 (6/9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4 (55/39)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1 (233/217)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (217/214)</x:t>
   </x:si>
   <x:si>
     <x:t>0,0 (0/3)</x:t>
@@ -538,88 +697,25 @@
     <x:t>0,9 (15/16)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4 (261/184)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (202/130)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1 (59/54)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (445/329)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (397/301)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (18/21)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (54/60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,8 (51/29)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (17/18)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,9 (73/39)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (26/17)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (73/58)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5 (84/57)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (1/2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (258/205)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,4 (52/36)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (129/102)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (55/42)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (22/25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (723/577)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0 (0/1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,3 (175/133)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (156/125)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (152/148)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (99/82)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,6 (141/88)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (130/127)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0 (73/74)</x:t>
+    <x:t>0,8 (35/46)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (70/91)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (116/121)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,5 (17/31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (37/40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,2 (62/50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0 (83/87)</x:t>
   </x:si>
   <x:si>
     <x:t>1,2 (20/16)</x:t>
@@ -637,16 +733,7 @@
     <x:t>0,8 (5/6)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,0 (116/121)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5 (17/31)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (37/40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2 (62/50)</x:t>
+    <x:t>0,8 (10/13)</x:t>
   </x:si>
   <x:si>
     <x:t>0,9 (466/499)</x:t>
@@ -676,6 +763,15 @@
     <x:t>2,0 (4/2)</x:t>
   </x:si>
   <x:si>
+    <x:t>0,9 (194/216)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,9 (149/161)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,8 (45/55)</x:t>
+  </x:si>
+  <x:si>
     <x:t>0,9 (139/155)</x:t>
   </x:si>
   <x:si>
@@ -719,9 +815,6 @@
   </x:si>
   <x:si>
     <x:t>0,8 (25/33)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,9 (14/15)</x:t>
   </x:si>
   <x:si>
     <x:t>0,7 (288/441)</x:t>
@@ -1213,44 +1306,28 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>6288.35051136356</x:v>
+        <x:v>12742.7971354167</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>498324.145458333</x:v>
-      </x:c>
-      <x:c r="E2" s="16" t="n">
-        <x:v>1344.544375</x:v>
-      </x:c>
-      <x:c r="F2" s="16" t="n">
-        <x:v>645.02291666664</x:v>
-      </x:c>
-      <x:c r="G2" s="16" t="n">
-        <x:v>5130.41729166656</x:v>
-      </x:c>
-      <x:c r="H2" s="16" t="n">
-        <x:v>8602.53645833337</x:v>
-      </x:c>
-      <x:c r="I2" s="16" t="n">
-        <x:v>4400.29066666646</x:v>
-      </x:c>
-      <x:c r="J2" s="16" t="n">
-        <x:v>14376.2753541668</x:v>
-      </x:c>
-      <x:c r="K2" s="16" t="n">
-        <x:v>7193.35291666654</x:v>
-      </x:c>
-      <x:c r="L2" s="16" t="n">
-        <x:v>1852.66208333336</x:v>
-      </x:c>
+        <x:v>41973.9319583333</x:v>
+      </x:c>
+      <x:c r="E2" s="16" t="s"/>
+      <x:c r="F2" s="16" t="s"/>
+      <x:c r="G2" s="16" t="s"/>
+      <x:c r="H2" s="16" t="s"/>
+      <x:c r="I2" s="16" t="s"/>
+      <x:c r="J2" s="16" t="s"/>
+      <x:c r="K2" s="16" t="s"/>
+      <x:c r="L2" s="16" t="s"/>
       <x:c r="M2" s="16" t="s"/>
-      <x:c r="N2" s="16" t="n">
-        <x:v>1618.00233333342</x:v>
-      </x:c>
-      <x:c r="O2" s="16" t="n">
-        <x:v>16505.5009791661</x:v>
-      </x:c>
-      <x:c r="P2" s="16" t="n">
-        <x:v>7503.25024999987</x:v>
+      <x:c r="N2" s="16" t="s"/>
+      <x:c r="O2" s="16" t="s"/>
+      <x:c r="P2" s="16" t="s"/>
+      <x:c r="Q2" s="16" t="n">
+        <x:v>8098.927125</x:v>
+      </x:c>
+      <x:c r="R2" s="16" t="n">
+        <x:v>17386.6671458333</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1258,42 +1335,52 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="15" t="n">
-        <x:v>4434.3542520833</x:v>
+        <x:v>10231.7261056547</x:v>
       </x:c>
       <x:c r="D3" s="15" t="n">
-        <x:v>183799.538520833</x:v>
-      </x:c>
-      <x:c r="E3" s="16" t="s"/>
-      <x:c r="F3" s="16" t="s"/>
+        <x:v>568955.267187499</x:v>
+      </x:c>
+      <x:c r="E3" s="16" t="n">
+        <x:v>3054.63064583333</x:v>
+      </x:c>
+      <x:c r="F3" s="16" t="n">
+        <x:v>5490.4359374998</x:v>
+      </x:c>
       <x:c r="G3" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="16" t="n">
-        <x:v>3222.45250000004</x:v>
+        <x:v>21705.3897916664</x:v>
       </x:c>
       <x:c r="I3" s="16" t="n">
-        <x:v>1105.96991666668</x:v>
+        <x:v>193.535916666675</x:v>
       </x:c>
       <x:c r="J3" s="16" t="n">
-        <x:v>3471.15733333331</x:v>
+        <x:v>6649.88156250032</x:v>
       </x:c>
       <x:c r="K3" s="16" t="n">
-        <x:v>7524.97016666664</x:v>
+        <x:v>35324.3560416665</x:v>
       </x:c>
       <x:c r="L3" s="16" t="n">
-        <x:v>1060.44037500001</x:v>
+        <x:v>11180.523625</x:v>
       </x:c>
       <x:c r="M3" s="16" t="n">
-        <x:v>6900.30666666661</x:v>
+        <x:v>5034.18933333328</x:v>
       </x:c>
       <x:c r="N3" s="16" t="n">
-        <x:v>3627.38391666664</x:v>
+        <x:v>8019.2699999999</x:v>
       </x:c>
       <x:c r="O3" s="16" t="n">
-        <x:v>8465.64429166663</x:v>
+        <x:v>25159.6002708334</x:v>
       </x:c>
       <x:c r="P3" s="16" t="n">
-        <x:v>8965.21735416647</x:v>
+        <x:v>16525.568583333</x:v>
+      </x:c>
+      <x:c r="Q3" s="16" t="n">
+        <x:v>4906.14939583361</x:v>
+      </x:c>
+      <x:c r="R3" s="16" t="n">
+        <x:v>0.634375000023283</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:146">
@@ -1301,10 +1388,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="15" t="n">
-        <x:v>4336.57577777778</x:v>
+        <x:v>5831.8506041666</x:v>
       </x:c>
       <x:c r="D4" s="15" t="n">
-        <x:v>424547.976770833</x:v>
+        <x:v>178631.226812498</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s"/>
       <x:c r="F4" s="16" t="s"/>
@@ -1314,50 +1401,64 @@
       <x:c r="J4" s="16" t="s"/>
       <x:c r="K4" s="16" t="s"/>
       <x:c r="L4" s="16" t="s"/>
-      <x:c r="M4" s="16" t="n">
-        <x:v>5791.06556250009</x:v>
-      </x:c>
-      <x:c r="N4" s="16" t="n">
-        <x:v>4560.5185624999</x:v>
-      </x:c>
-      <x:c r="O4" s="16" t="n">
-        <x:v>2658.14320833335</x:v>
-      </x:c>
+      <x:c r="M4" s="16" t="s"/>
+      <x:c r="N4" s="16" t="s"/>
+      <x:c r="O4" s="16" t="s"/>
       <x:c r="P4" s="16" t="s"/>
+      <x:c r="Q4" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R4" s="16" t="n">
+        <x:v>11663.7012083332</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:146">
       <x:c r="B5" s="14" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="15" t="n">
-        <x:v>4086.40960416667</x:v>
+        <x:v>5766.13810416662</x:v>
       </x:c>
       <x:c r="D5" s="15" t="n">
-        <x:v>246131.342208333</x:v>
+        <x:v>208649.653249999</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s"/>
       <x:c r="F5" s="16" t="s"/>
       <x:c r="G5" s="16" t="n">
-        <x:v>3.73749999998836</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="16" t="n">
-        <x:v>10267.3586666667</x:v>
-      </x:c>
-      <x:c r="I5" s="16" t="s"/>
-      <x:c r="J5" s="16" t="s"/>
-      <x:c r="K5" s="16" t="s"/>
-      <x:c r="L5" s="16" t="s"/>
+        <x:v>3222.45250000004</x:v>
+      </x:c>
+      <x:c r="I5" s="16" t="n">
+        <x:v>1105.96991666668</x:v>
+      </x:c>
+      <x:c r="J5" s="16" t="n">
+        <x:v>3471.15733333331</x:v>
+      </x:c>
+      <x:c r="K5" s="16" t="n">
+        <x:v>7524.97016666664</x:v>
+      </x:c>
+      <x:c r="L5" s="16" t="n">
+        <x:v>1060.44037500001</x:v>
+      </x:c>
       <x:c r="M5" s="16" t="n">
-        <x:v>5635.70433333339</x:v>
+        <x:v>6900.30666666661</x:v>
       </x:c>
       <x:c r="N5" s="16" t="n">
-        <x:v>3016.1687916666</x:v>
+        <x:v>3627.38391666664</x:v>
       </x:c>
       <x:c r="O5" s="16" t="n">
-        <x:v>2351.04249999998</x:v>
+        <x:v>8465.64429166663</x:v>
       </x:c>
       <x:c r="P5" s="16" t="n">
-        <x:v>3244.44583333336</x:v>
+        <x:v>8965.21735416647</x:v>
+      </x:c>
+      <x:c r="Q5" s="16" t="n">
+        <x:v>16901.7795624998</x:v>
+      </x:c>
+      <x:c r="R5" s="16" t="n">
+        <x:v>7948.33516666657</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:146">
@@ -1365,93 +1466,71 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="15" t="n">
-        <x:v>3513.72258333333</x:v>
+        <x:v>4336.57577777778</x:v>
       </x:c>
       <x:c r="D6" s="15" t="n">
-        <x:v>315027.512291666</x:v>
-      </x:c>
-      <x:c r="E6" s="16" t="n">
-        <x:v>651.375208333309</x:v>
-      </x:c>
-      <x:c r="F6" s="16" t="n">
-        <x:v>7667.99574999989</x:v>
-      </x:c>
-      <x:c r="G6" s="16" t="n">
-        <x:v>34.7241666666814</x:v>
-      </x:c>
-      <x:c r="H6" s="16" t="n">
-        <x:v>1549.28816666658</x:v>
-      </x:c>
-      <x:c r="I6" s="16" t="n">
-        <x:v>6776.15354166669</x:v>
-      </x:c>
-      <x:c r="J6" s="16" t="n">
-        <x:v>11297.3093750001</x:v>
-      </x:c>
-      <x:c r="K6" s="16" t="n">
-        <x:v>332.174041666673</x:v>
-      </x:c>
-      <x:c r="L6" s="16" t="n">
-        <x:v>90.1114999999991</x:v>
-      </x:c>
+        <x:v>424547.976770833</x:v>
+      </x:c>
+      <x:c r="E6" s="16" t="s"/>
+      <x:c r="F6" s="16" t="s"/>
+      <x:c r="G6" s="16" t="s"/>
+      <x:c r="H6" s="16" t="s"/>
+      <x:c r="I6" s="16" t="s"/>
+      <x:c r="J6" s="16" t="s"/>
+      <x:c r="K6" s="16" t="s"/>
+      <x:c r="L6" s="16" t="s"/>
       <x:c r="M6" s="16" t="n">
-        <x:v>1659.84533333336</x:v>
+        <x:v>5791.06556250009</x:v>
       </x:c>
       <x:c r="N6" s="16" t="n">
-        <x:v>554.782833333302</x:v>
+        <x:v>4560.5185624999</x:v>
       </x:c>
       <x:c r="O6" s="16" t="n">
-        <x:v>2.90833333332557</x:v>
-      </x:c>
-      <x:c r="P6" s="16" t="n">
-        <x:v>11548.00275</x:v>
-      </x:c>
+        <x:v>2658.14320833335</x:v>
+      </x:c>
+      <x:c r="P6" s="16" t="s"/>
+      <x:c r="Q6" s="16" t="s"/>
+      <x:c r="R6" s="16" t="s"/>
     </x:row>
     <x:row r="7" spans="1:146">
       <x:c r="B7" s="14" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="15" t="n">
-        <x:v>3386.68380381941</x:v>
+        <x:v>3743.715578125</x:v>
       </x:c>
       <x:c r="D7" s="15" t="n">
-        <x:v>428660.951333331</x:v>
-      </x:c>
-      <x:c r="E7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F7" s="16" t="n">
-        <x:v>1469.81491666666</x:v>
-      </x:c>
+        <x:v>251562.609208333</x:v>
+      </x:c>
+      <x:c r="E7" s="16" t="s"/>
+      <x:c r="F7" s="16" t="s"/>
       <x:c r="G7" s="16" t="n">
-        <x:v>6018.38118749985</x:v>
+        <x:v>3.73749999998836</x:v>
       </x:c>
       <x:c r="H7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J7" s="16" t="n">
-        <x:v>11000.6427083332</x:v>
-      </x:c>
-      <x:c r="K7" s="16" t="n">
-        <x:v>69.2971666667145</x:v>
-      </x:c>
-      <x:c r="L7" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>10267.3586666667</x:v>
+      </x:c>
+      <x:c r="I7" s="16" t="s"/>
+      <x:c r="J7" s="16" t="s"/>
+      <x:c r="K7" s="16" t="s"/>
+      <x:c r="L7" s="16" t="s"/>
       <x:c r="M7" s="16" t="n">
-        <x:v>6041.30991666659</x:v>
+        <x:v>5635.70433333339</x:v>
       </x:c>
       <x:c r="N7" s="16" t="n">
-        <x:v>10271.5787499999</x:v>
+        <x:v>3016.1687916666</x:v>
       </x:c>
       <x:c r="O7" s="16" t="n">
-        <x:v>2655.16450000007</x:v>
+        <x:v>2351.04249999998</x:v>
       </x:c>
       <x:c r="P7" s="16" t="n">
-        <x:v>3114.01649999997</x:v>
+        <x:v>3244.44583333336</x:v>
+      </x:c>
+      <x:c r="Q7" s="16" t="n">
+        <x:v>3170.79466666662</x:v>
+      </x:c>
+      <x:c r="R7" s="16" t="n">
+        <x:v>2260.47233333334</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:146">
@@ -1459,19 +1538,19 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="15" t="n">
-        <x:v>3128.6611666666</x:v>
+        <x:v>3143.82100148807</x:v>
       </x:c>
       <x:c r="D8" s="15" t="n">
-        <x:v>1373544.53079167</x:v>
+        <x:v>432034.239708331</x:v>
       </x:c>
       <x:c r="E8" s="16" t="n">
-        <x:v>513.604124999838</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="16" t="n">
-        <x:v>371.126833333168</x:v>
+        <x:v>1469.81491666666</x:v>
       </x:c>
       <x:c r="G8" s="16" t="n">
-        <x:v>4316.18437499972</x:v>
+        <x:v>6018.38118749985</x:v>
       </x:c>
       <x:c r="H8" s="16" t="n">
         <x:v>0</x:v>
@@ -1480,25 +1559,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="16" t="n">
-        <x:v>767.471291666618</x:v>
+        <x:v>11000.6427083332</x:v>
       </x:c>
       <x:c r="K8" s="16" t="n">
-        <x:v>32.0693333332893</x:v>
+        <x:v>69.2971666667145</x:v>
       </x:c>
       <x:c r="L8" s="16" t="n">
-        <x:v>1690.48345833342</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>6041.30991666659</x:v>
       </x:c>
       <x:c r="N8" s="16" t="n">
-        <x:v>642.574291666737</x:v>
+        <x:v>10271.5787499999</x:v>
       </x:c>
       <x:c r="O8" s="16" t="n">
-        <x:v>26771.1802083328</x:v>
+        <x:v>2655.16450000007</x:v>
       </x:c>
       <x:c r="P8" s="16" t="n">
-        <x:v>2439.24008333357</x:v>
+        <x:v>3114.01649999997</x:v>
+      </x:c>
+      <x:c r="Q8" s="16" t="n">
+        <x:v>2025.33929166669</x:v>
+      </x:c>
+      <x:c r="R8" s="16" t="n">
+        <x:v>1347.94908333337</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:146">
@@ -1506,30 +1591,52 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="15" t="n">
-        <x:v>2825.47665624998</x:v>
+        <x:v>2993.203485119</x:v>
       </x:c>
       <x:c r="D9" s="15" t="n">
-        <x:v>195814.623749999</x:v>
-      </x:c>
-      <x:c r="E9" s="16" t="s"/>
-      <x:c r="F9" s="16" t="s"/>
-      <x:c r="G9" s="16" t="s"/>
-      <x:c r="H9" s="16" t="s"/>
-      <x:c r="I9" s="16" t="s"/>
-      <x:c r="J9" s="16" t="s"/>
-      <x:c r="K9" s="16" t="s"/>
-      <x:c r="L9" s="16" t="s"/>
+        <x:v>1377905.44558333</x:v>
+      </x:c>
+      <x:c r="E9" s="16" t="n">
+        <x:v>513.604124999838</x:v>
+      </x:c>
+      <x:c r="F9" s="16" t="n">
+        <x:v>371.126833333168</x:v>
+      </x:c>
+      <x:c r="G9" s="16" t="n">
+        <x:v>4316.18437499972</x:v>
+      </x:c>
+      <x:c r="H9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I9" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="16" t="n">
+        <x:v>767.471291666618</x:v>
+      </x:c>
+      <x:c r="K9" s="16" t="n">
+        <x:v>32.0693333332893</x:v>
+      </x:c>
+      <x:c r="L9" s="16" t="n">
+        <x:v>1690.48345833342</x:v>
+      </x:c>
       <x:c r="M9" s="16" t="n">
-        <x:v>2974.93737499995</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N9" s="16" t="n">
-        <x:v>4927.78054166664</x:v>
+        <x:v>642.574291666737</x:v>
       </x:c>
       <x:c r="O9" s="16" t="n">
-        <x:v>2615.761375</x:v>
+        <x:v>26771.1802083328</x:v>
       </x:c>
       <x:c r="P9" s="16" t="n">
-        <x:v>783.427333333326</x:v>
+        <x:v>2439.24008333357</x:v>
+      </x:c>
+      <x:c r="Q9" s="16" t="n">
+        <x:v>3710.10337500018</x:v>
+      </x:c>
+      <x:c r="R9" s="16" t="n">
+        <x:v>650.811416666722</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:146">
@@ -1537,10 +1644,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="15" t="n">
-        <x:v>2656.65135416665</x:v>
+        <x:v>2925.59178124999</x:v>
       </x:c>
       <x:c r="D10" s="15" t="n">
-        <x:v>54391.8075624997</x:v>
+        <x:v>202066.267812499</x:v>
       </x:c>
       <x:c r="E10" s="16" t="s"/>
       <x:c r="F10" s="16" t="s"/>
@@ -1551,16 +1658,22 @@
       <x:c r="K10" s="16" t="s"/>
       <x:c r="L10" s="16" t="s"/>
       <x:c r="M10" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2974.93737499995</x:v>
       </x:c>
       <x:c r="N10" s="16" t="n">
-        <x:v>5756.17006249994</x:v>
+        <x:v>4927.78054166664</x:v>
       </x:c>
       <x:c r="O10" s="16" t="n">
-        <x:v>3671.99477083333</x:v>
+        <x:v>2615.761375</x:v>
       </x:c>
       <x:c r="P10" s="16" t="n">
-        <x:v>1198.44058333332</x:v>
+        <x:v>783.427333333326</x:v>
+      </x:c>
+      <x:c r="Q10" s="16" t="n">
+        <x:v>6251.64406250004</x:v>
+      </x:c>
+      <x:c r="R10" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:146">
@@ -1568,227 +1681,225 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C11" s="15" t="n">
-        <x:v>1920.57152314814</x:v>
+        <x:v>2656.65135416665</x:v>
       </x:c>
       <x:c r="D11" s="15" t="n">
-        <x:v>48883.0938541665</x:v>
+        <x:v>54391.8075624997</x:v>
       </x:c>
       <x:c r="E11" s="16" t="s"/>
       <x:c r="F11" s="16" t="s"/>
       <x:c r="G11" s="16" t="s"/>
-      <x:c r="H11" s="16" t="n">
-        <x:v>3214.10520833333</x:v>
-      </x:c>
-      <x:c r="I11" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J11" s="16" t="n">
-        <x:v>5144.2545833333</x:v>
-      </x:c>
-      <x:c r="K11" s="16" t="n">
-        <x:v>5312.02304166662</x:v>
-      </x:c>
-      <x:c r="L11" s="16" t="n">
-        <x:v>2049.995875</x:v>
-      </x:c>
+      <x:c r="H11" s="16" t="s"/>
+      <x:c r="I11" s="16" t="s"/>
+      <x:c r="J11" s="16" t="s"/>
+      <x:c r="K11" s="16" t="s"/>
+      <x:c r="L11" s="16" t="s"/>
       <x:c r="M11" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="16" t="n">
-        <x:v>622.168958333321</x:v>
+        <x:v>5756.17006249994</x:v>
       </x:c>
       <x:c r="O11" s="16" t="n">
-        <x:v>0.671333333331859</x:v>
+        <x:v>3671.99477083333</x:v>
       </x:c>
       <x:c r="P11" s="16" t="n">
-        <x:v>941.924708333332</x:v>
-      </x:c>
+        <x:v>1198.44058333332</x:v>
+      </x:c>
+      <x:c r="Q11" s="16" t="s"/>
+      <x:c r="R11" s="16" t="s"/>
     </x:row>
     <x:row r="12" spans="1:146">
       <x:c r="B12" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>1736.76348263888</x:v>
+        <x:v>2133.48833333332</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>731834.647500001</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="16" t="n">
-        <x:v>5174.28887499985</x:v>
-      </x:c>
-      <x:c r="G12" s="16" t="n">
-        <x:v>1600.75516666658</x:v>
-      </x:c>
+        <x:v>52932.8334791664</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s"/>
+      <x:c r="F12" s="16" t="s"/>
+      <x:c r="G12" s="16" t="s"/>
       <x:c r="H12" s="16" t="n">
-        <x:v>647.367500000051</x:v>
+        <x:v>3214.10520833333</x:v>
       </x:c>
       <x:c r="I12" s="16" t="n">
-        <x:v>1175.67233333341</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="16" t="n">
-        <x:v>982.648166666739</x:v>
+        <x:v>5144.2545833333</x:v>
       </x:c>
       <x:c r="K12" s="16" t="n">
-        <x:v>2281.77925000002</x:v>
+        <x:v>5312.02304166662</x:v>
       </x:c>
       <x:c r="L12" s="16" t="n">
-        <x:v>1292.53416666656</x:v>
+        <x:v>2049.995875</x:v>
       </x:c>
       <x:c r="M12" s="16" t="n">
-        <x:v>622.271666666609</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N12" s="16" t="n">
-        <x:v>302.263000000035</x:v>
+        <x:v>622.168958333321</x:v>
       </x:c>
       <x:c r="O12" s="16" t="n">
-        <x:v>2576.27116666664</x:v>
+        <x:v>0.671333333331859</x:v>
       </x:c>
       <x:c r="P12" s="16" t="n">
-        <x:v>4185.31050000002</x:v>
-      </x:c>
+        <x:v>941.924708333332</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>4049.73962499999</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="s"/>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>1706.70809722221</x:v>
+        <x:v>1899.80687500004</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>129671.9335</x:v>
-      </x:c>
-      <x:c r="E13" s="16" t="s"/>
+        <x:v>631140.284499999</x:v>
+      </x:c>
+      <x:c r="E13" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>206.686333333375</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
-        <x:v>201.279333333339</x:v>
+        <x:v>77.2917916667648</x:v>
       </x:c>
       <x:c r="H13" s="16" t="n">
-        <x:v>6998.81104166665</x:v>
+        <x:v>4223.86812500004</x:v>
       </x:c>
       <x:c r="I13" s="16" t="n">
-        <x:v>26.9421666666603</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="16" t="n">
-        <x:v>2054.76862499998</x:v>
+        <x:v>1.35100000002421</x:v>
       </x:c>
       <x:c r="K13" s="16" t="n">
-        <x:v>4383.40504166663</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L13" s="16" t="n">
-        <x:v>879.558999999965</x:v>
+        <x:v>5056.77312500007</x:v>
       </x:c>
       <x:c r="M13" s="16" t="n">
-        <x:v>664.517666666652</x:v>
+        <x:v>7305.71252083348</x:v>
       </x:c>
       <x:c r="N13" s="16" t="n">
-        <x:v>151.089999999997</x:v>
-      </x:c>
-      <x:c r="O13" s="16" t="s"/>
-      <x:c r="P13" s="16" t="s"/>
-      <x:c r="AC13" s="17" t="s"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O13" s="16" t="n">
+        <x:v>2734.07083333342</x:v>
+      </x:c>
+      <x:c r="P13" s="16" t="n">
+        <x:v>315.947500000009</x:v>
+      </x:c>
+      <x:c r="Q13" s="16" t="n">
+        <x:v>6608.28418750013</x:v>
+      </x:c>
+      <x:c r="R13" s="16" t="n">
+        <x:v>67.310833333293</x:v>
+      </x:c>
+      <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B14" s="14" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>1660.14176909727</x:v>
+        <x:v>1895.18050694442</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>624464.689479165</x:v>
+        <x:v>276868.112770833</x:v>
       </x:c>
       <x:c r="E14" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4226.44516666664</x:v>
       </x:c>
       <x:c r="F14" s="16" t="n">
-        <x:v>206.686333333375</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G14" s="16" t="n">
-        <x:v>77.2917916667648</x:v>
+        <x:v>1624.049875</x:v>
       </x:c>
       <x:c r="H14" s="16" t="n">
-        <x:v>4223.86812500004</x:v>
-      </x:c>
-      <x:c r="I14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J14" s="16" t="n">
-        <x:v>1.35100000002421</x:v>
-      </x:c>
-      <x:c r="K14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L14" s="16" t="n">
-        <x:v>5056.77312500007</x:v>
-      </x:c>
-      <x:c r="M14" s="16" t="n">
-        <x:v>7305.71252083348</x:v>
-      </x:c>
-      <x:c r="N14" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O14" s="16" t="n">
-        <x:v>2734.07083333342</x:v>
-      </x:c>
-      <x:c r="P14" s="16" t="n">
-        <x:v>315.947500000009</x:v>
-      </x:c>
-      <x:c r="Z14" s="16" t="s"/>
-      <x:c r="AA14" s="16" t="s"/>
+        <x:v>5520.5879999999</x:v>
+      </x:c>
+      <x:c r="I14" s="16" t="s"/>
+      <x:c r="J14" s="16" t="s"/>
+      <x:c r="K14" s="16" t="s"/>
+      <x:c r="L14" s="16" t="s"/>
+      <x:c r="M14" s="16" t="s"/>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
+      <x:c r="P14" s="16" t="s"/>
+      <x:c r="Q14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R14" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
+      <x:c r="AD14" s="16" t="s"/>
+      <x:c r="AE14" s="16" t="s"/>
     </x:row>
     <x:row r="15" spans="1:146">
       <x:c r="B15" s="14" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="15" t="n">
-        <x:v>1524.74579513889</x:v>
+        <x:v>1858.62563392855</x:v>
       </x:c>
       <x:c r="D15" s="15" t="n">
-        <x:v>319456.275145833</x:v>
+        <x:v>737014.244583334</x:v>
       </x:c>
       <x:c r="E15" s="16" t="n">
-        <x:v>340.317333333369</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="16" t="n">
-        <x:v>1047.77225000004</x:v>
+        <x:v>5174.28887499985</x:v>
       </x:c>
       <x:c r="G15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1600.75516666658</x:v>
       </x:c>
       <x:c r="H15" s="16" t="n">
-        <x:v>1929.2447499999</x:v>
+        <x:v>647.367500000051</x:v>
       </x:c>
       <x:c r="I15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1175.67233333341</x:v>
       </x:c>
       <x:c r="J15" s="16" t="n">
-        <x:v>260.495166666689</x:v>
+        <x:v>982.648166666739</x:v>
       </x:c>
       <x:c r="K15" s="16" t="n">
-        <x:v>1958.80295833334</x:v>
+        <x:v>2281.77925000002</x:v>
       </x:c>
       <x:c r="L15" s="16" t="n">
-        <x:v>506.175500000012</x:v>
+        <x:v>1292.53416666656</x:v>
       </x:c>
       <x:c r="M15" s="16" t="n">
-        <x:v>8992.36758333334</x:v>
+        <x:v>622.271666666609</x:v>
       </x:c>
       <x:c r="N15" s="16" t="n">
-        <x:v>3240.22966666665</x:v>
+        <x:v>302.263000000035</x:v>
       </x:c>
       <x:c r="O15" s="16" t="n">
-        <x:v>21.5443333333242</x:v>
+        <x:v>2576.27116666664</x:v>
       </x:c>
       <x:c r="P15" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>4185.31050000002</x:v>
+      </x:c>
+      <x:c r="Q15" s="16" t="n">
+        <x:v>3947.21816666645</x:v>
+      </x:c>
+      <x:c r="R15" s="16" t="n">
+        <x:v>1232.37891666673</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:146">
@@ -1796,55 +1907,59 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>1516.03383333333</x:v>
+        <x:v>1706.70809722221</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>87614.5229374997</x:v>
-      </x:c>
-      <x:c r="E16" s="16" t="n">
-        <x:v>6227.38108333334</x:v>
-      </x:c>
+        <x:v>129671.9335</x:v>
+      </x:c>
+      <x:c r="E16" s="16" t="s"/>
       <x:c r="F16" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>201.279333333339</x:v>
       </x:c>
       <x:c r="H16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>6998.81104166665</x:v>
       </x:c>
       <x:c r="I16" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>26.9421666666603</x:v>
       </x:c>
       <x:c r="J16" s="16" t="n">
-        <x:v>1564.09308333333</x:v>
+        <x:v>2054.76862499998</x:v>
       </x:c>
       <x:c r="K16" s="16" t="n">
-        <x:v>4336.79649999994</x:v>
-      </x:c>
-      <x:c r="L16" s="16" t="s"/>
+        <x:v>4383.40504166663</x:v>
+      </x:c>
+      <x:c r="L16" s="16" t="n">
+        <x:v>879.558999999965</x:v>
+      </x:c>
       <x:c r="M16" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N16" s="16" t="s"/>
+        <x:v>664.517666666652</x:v>
+      </x:c>
+      <x:c r="N16" s="16" t="n">
+        <x:v>151.089999999997</x:v>
+      </x:c>
       <x:c r="O16" s="16" t="s"/>
       <x:c r="P16" s="16" t="s"/>
+      <x:c r="Q16" s="16" t="s"/>
+      <x:c r="R16" s="16" t="s"/>
     </x:row>
     <x:row r="17" spans="1:146">
       <x:c r="B17" s="14" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="15" t="n">
-        <x:v>1511.47725781249</x:v>
+        <x:v>1516.03383333333</x:v>
       </x:c>
       <x:c r="D17" s="15" t="n">
-        <x:v>37301.8384583332</x:v>
+        <x:v>87614.5229374997</x:v>
       </x:c>
       <x:c r="E17" s="16" t="n">
-        <x:v>8227.09062499995</x:v>
+        <x:v>6227.38108333334</x:v>
       </x:c>
       <x:c r="F17" s="16" t="n">
-        <x:v>3864.72743749999</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="16" t="n">
         <x:v>0</x:v>
@@ -1856,113 +1971,113 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>1564.09308333333</x:v>
       </x:c>
       <x:c r="K17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L17" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M17" s="16" t="s"/>
+        <x:v>4336.79649999994</x:v>
+      </x:c>
+      <x:c r="L17" s="16" t="s"/>
+      <x:c r="M17" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="N17" s="16" t="s"/>
       <x:c r="O17" s="16" t="s"/>
       <x:c r="P17" s="16" t="s"/>
+      <x:c r="Q17" s="16" t="s"/>
+      <x:c r="R17" s="16" t="s"/>
     </x:row>
     <x:row r="18" spans="1:146">
       <x:c r="B18" s="14" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="C18" s="15" t="n">
-        <x:v>1505.19447222222</x:v>
+        <x:v>1511.47725781249</x:v>
       </x:c>
       <x:c r="D18" s="15" t="n">
-        <x:v>42855.1432916666</x:v>
-      </x:c>
-      <x:c r="E18" s="16" t="s"/>
-      <x:c r="F18" s="16" t="s"/>
-      <x:c r="G18" s="16" t="s"/>
-      <x:c r="H18" s="16" t="s"/>
-      <x:c r="I18" s="16" t="s"/>
-      <x:c r="J18" s="16" t="s"/>
+        <x:v>37301.8384583332</x:v>
+      </x:c>
+      <x:c r="E18" s="16" t="n">
+        <x:v>8227.09062499995</x:v>
+      </x:c>
+      <x:c r="F18" s="16" t="n">
+        <x:v>3864.72743749999</x:v>
+      </x:c>
+      <x:c r="G18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J18" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="K18" s="16" t="n">
-        <x:v>679.84883333333</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="16" t="n">
-        <x:v>736.895083333329</x:v>
-      </x:c>
-      <x:c r="M18" s="16" t="n">
-        <x:v>5983.75749999999</x:v>
-      </x:c>
-      <x:c r="N18" s="16" t="n">
-        <x:v>128.152499999997</x:v>
-      </x:c>
-      <x:c r="O18" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P18" s="16" t="n">
-        <x:v>1502.51291666667</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M18" s="16" t="s"/>
+      <x:c r="N18" s="16" t="s"/>
+      <x:c r="O18" s="16" t="s"/>
+      <x:c r="P18" s="16" t="s"/>
+      <x:c r="Q18" s="16" t="s"/>
+      <x:c r="R18" s="16" t="s"/>
     </x:row>
     <x:row r="19" spans="1:146">
       <x:c r="B19" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="15" t="n">
-        <x:v>1456.15423214286</x:v>
+        <x:v>1505.19447222222</x:v>
       </x:c>
       <x:c r="D19" s="15" t="n">
-        <x:v>172865.186083333</x:v>
+        <x:v>42855.1432916666</x:v>
       </x:c>
       <x:c r="E19" s="16" t="s"/>
       <x:c r="F19" s="16" t="s"/>
       <x:c r="G19" s="16" t="s"/>
       <x:c r="H19" s="16" t="s"/>
       <x:c r="I19" s="16" t="s"/>
-      <x:c r="J19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="J19" s="16" t="s"/>
       <x:c r="K19" s="16" t="n">
-        <x:v>10193.079625</x:v>
+        <x:v>679.84883333333</x:v>
       </x:c>
       <x:c r="L19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>736.895083333329</x:v>
       </x:c>
       <x:c r="M19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>5983.75749999999</x:v>
       </x:c>
       <x:c r="N19" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>128.152499999997</x:v>
       </x:c>
       <x:c r="O19" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P19" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>1502.51291666667</x:v>
+      </x:c>
+      <x:c r="Q19" s="16" t="s"/>
+      <x:c r="R19" s="16" t="s"/>
     </x:row>
     <x:row r="20" spans="1:146">
       <x:c r="B20" s="14" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="15" t="n">
-        <x:v>731.819416666672</x:v>
+        <x:v>1489.96793055558</x:v>
       </x:c>
       <x:c r="D20" s="15" t="n">
-        <x:v>280918.016958334</x:v>
-      </x:c>
-      <x:c r="E20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>71353.9834583333</x:v>
+      </x:c>
+      <x:c r="E20" s="16" t="s"/>
+      <x:c r="F20" s="16" t="s"/>
+      <x:c r="G20" s="16" t="s"/>
+      <x:c r="H20" s="16" t="s"/>
       <x:c r="I20" s="16" t="s"/>
       <x:c r="J20" s="16" t="s"/>
       <x:c r="K20" s="16" t="s"/>
@@ -1971,7 +2086,13 @@
       <x:c r="N20" s="16" t="s"/>
       <x:c r="O20" s="16" t="s"/>
       <x:c r="P20" s="16" t="n">
-        <x:v>3659.09708333336</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q20" s="16" t="n">
+        <x:v>3320.55170833338</x:v>
+      </x:c>
+      <x:c r="R20" s="16" t="n">
+        <x:v>1149.35208333336</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:146">
@@ -1979,34 +2100,24 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>726.443432291688</x:v>
+        <x:v>1456.15423214286</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>346216.776958333</x:v>
-      </x:c>
-      <x:c r="E21" s="16" t="n">
-        <x:v>2196.16137499997</x:v>
-      </x:c>
-      <x:c r="F21" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G21" s="16" t="n">
-        <x:v>1851.67493750009</x:v>
-      </x:c>
-      <x:c r="H21" s="16" t="n">
-        <x:v>587.994083333353</x:v>
-      </x:c>
-      <x:c r="I21" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>172865.186083333</x:v>
+      </x:c>
+      <x:c r="E21" s="16" t="s"/>
+      <x:c r="F21" s="16" t="s"/>
+      <x:c r="G21" s="16" t="s"/>
+      <x:c r="H21" s="16" t="s"/>
+      <x:c r="I21" s="16" t="s"/>
       <x:c r="J21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K21" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>10193.079625</x:v>
       </x:c>
       <x:c r="L21" s="16" t="n">
-        <x:v>788.590083333373</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="16" t="n">
         <x:v>0</x:v>
@@ -2015,47 +2126,65 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O21" s="16" t="n">
-        <x:v>3292.90070833347</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P21" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q21" s="16" t="s"/>
+      <x:c r="R21" s="16" t="s"/>
     </x:row>
     <x:row r="22" spans="1:146">
       <x:c r="B22" s="14" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="15" t="n">
-        <x:v>606.839696428573</x:v>
+        <x:v>1321.50883630953</x:v>
       </x:c>
       <x:c r="D22" s="15" t="n">
-        <x:v>112622.846458333</x:v>
-      </x:c>
-      <x:c r="E22" s="16" t="s"/>
-      <x:c r="F22" s="16" t="s"/>
-      <x:c r="G22" s="16" t="s"/>
-      <x:c r="H22" s="16" t="s"/>
-      <x:c r="I22" s="16" t="s"/>
+        <x:v>319660.4493125</x:v>
+      </x:c>
+      <x:c r="E22" s="16" t="n">
+        <x:v>340.317333333369</x:v>
+      </x:c>
+      <x:c r="F22" s="16" t="n">
+        <x:v>1047.77225000004</x:v>
+      </x:c>
+      <x:c r="G22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="16" t="n">
+        <x:v>1929.2447499999</x:v>
+      </x:c>
+      <x:c r="I22" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>260.495166666689</x:v>
       </x:c>
       <x:c r="K22" s="16" t="n">
-        <x:v>87.0581666666694</x:v>
+        <x:v>1958.80295833334</x:v>
       </x:c>
       <x:c r="L22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>506.175500000012</x:v>
       </x:c>
       <x:c r="M22" s="16" t="n">
-        <x:v>771.886666666658</x:v>
+        <x:v>8992.36758333334</x:v>
       </x:c>
       <x:c r="N22" s="16" t="n">
-        <x:v>2918.46083333335</x:v>
+        <x:v>3240.22966666665</x:v>
       </x:c>
       <x:c r="O22" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>21.5443333333242</x:v>
       </x:c>
       <x:c r="P22" s="16" t="n">
-        <x:v>470.472208333333</x:v>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q22" s="16" t="n">
+        <x:v>204.174166666693</x:v>
+      </x:c>
+      <x:c r="R22" s="16" t="n">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:146">
@@ -2063,58 +2192,64 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>351.447333333333</x:v>
+        <x:v>873.135854166667</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>144896.117791667</x:v>
+        <x:v>283370.870854167</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="16" t="n">
-        <x:v>708.81487500004</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="16" t="n">
-        <x:v>624.92804166663</x:v>
-      </x:c>
-      <x:c r="I23" s="16" t="n">
-        <x:v>423.493749999994</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I23" s="16" t="s"/>
       <x:c r="J23" s="16" t="s"/>
       <x:c r="K23" s="16" t="s"/>
       <x:c r="L23" s="16" t="s"/>
       <x:c r="M23" s="16" t="s"/>
       <x:c r="N23" s="16" t="s"/>
       <x:c r="O23" s="16" t="s"/>
-      <x:c r="P23" s="16" t="s"/>
+      <x:c r="P23" s="16" t="n">
+        <x:v>3659.09708333336</x:v>
+      </x:c>
+      <x:c r="Q23" s="16" t="n">
+        <x:v>137.227499999979</x:v>
+      </x:c>
+      <x:c r="R23" s="16" t="n">
+        <x:v>2315.62639583333</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
       <x:c r="B24" s="14" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C24" s="15" t="n">
-        <x:v>321.087822916663</x:v>
+        <x:v>670.56316826925</x:v>
       </x:c>
       <x:c r="D24" s="15" t="n">
-        <x:v>180250.354062499</x:v>
+        <x:v>346216.776958333</x:v>
       </x:c>
       <x:c r="E24" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>2196.16137499997</x:v>
       </x:c>
       <x:c r="F24" s="16" t="n">
-        <x:v>36.4835416666756</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G24" s="16" t="n">
-        <x:v>465.171875</x:v>
+        <x:v>1851.67493750009</x:v>
       </x:c>
       <x:c r="H24" s="16" t="n">
-        <x:v>410.190249999985</x:v>
+        <x:v>587.994083333353</x:v>
       </x:c>
       <x:c r="I24" s="16" t="n">
-        <x:v>2578.88579166663</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J24" s="16" t="n">
         <x:v>0</x:v>
@@ -2123,7 +2258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>788.590083333373</x:v>
       </x:c>
       <x:c r="M24" s="16" t="n">
         <x:v>0</x:v>
@@ -2132,56 +2267,54 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O24" s="16" t="n">
-        <x:v>362.322416666662</x:v>
+        <x:v>3292.90070833347</x:v>
       </x:c>
       <x:c r="P24" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="Q24" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R24" s="16" t="s"/>
     </x:row>
     <x:row r="25" spans="1:146">
       <x:c r="B25" s="14" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="15" t="n">
-        <x:v>223.630871527777</x:v>
+        <x:v>643.946119791668</x:v>
       </x:c>
       <x:c r="D25" s="15" t="n">
-        <x:v>66395.7472083332</x:v>
+        <x:v>347036.080145833</x:v>
       </x:c>
       <x:c r="E25" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="16" t="n">
-        <x:v>737.157458333328</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G25" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="16" t="n">
-        <x:v>42.4923333333354</x:v>
-      </x:c>
-      <x:c r="I25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J25" s="16" t="n">
-        <x:v>1626.22233333333</x:v>
-      </x:c>
-      <x:c r="K25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M25" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N25" s="16" t="n">
-        <x:v>163.762666666662</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I25" s="16" t="s"/>
+      <x:c r="J25" s="16" t="s"/>
+      <x:c r="K25" s="16" t="s"/>
+      <x:c r="L25" s="16" t="s"/>
+      <x:c r="M25" s="16" t="s"/>
+      <x:c r="N25" s="16" t="s"/>
       <x:c r="O25" s="16" t="n">
-        <x:v>113.935666666672</x:v>
+        <x:v>33.5306666666875</x:v>
       </x:c>
       <x:c r="P25" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q25" s="16" t="n">
+        <x:v>5118.03829166666</x:v>
+      </x:c>
+      <x:c r="R25" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -2190,38 +2323,52 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="15" t="n">
-        <x:v>64.3887916666718</x:v>
+        <x:v>510.410066964284</x:v>
       </x:c>
       <x:c r="D26" s="15" t="n">
-        <x:v>672513.565749998</x:v>
+        <x:v>183543.041124999</x:v>
       </x:c>
       <x:c r="E26" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>36.4835416666756</x:v>
       </x:c>
       <x:c r="G26" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>465.171875</x:v>
       </x:c>
       <x:c r="H26" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>410.190249999985</x:v>
       </x:c>
       <x:c r="I26" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J26" s="16" t="s"/>
-      <x:c r="K26" s="16" t="s"/>
-      <x:c r="L26" s="16" t="s"/>
-      <x:c r="M26" s="16" t="s"/>
+        <x:v>2578.88579166663</x:v>
+      </x:c>
+      <x:c r="J26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M26" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="N26" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="16" t="n">
-        <x:v>515.110333333374</x:v>
+        <x:v>362.322416666662</x:v>
       </x:c>
       <x:c r="P26" s="16" t="n">
         <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="16" t="n">
+        <x:v>1183.03231249997</x:v>
+      </x:c>
+      <x:c r="R26" s="16" t="n">
+        <x:v>2109.65475000005</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:146">
@@ -2229,39 +2376,69 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C27" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>471.986430555557</x:v>
       </x:c>
       <x:c r="D27" s="15" t="n">
-        <x:v>515226.381499998</x:v>
+        <x:v>112622.846458333</x:v>
       </x:c>
       <x:c r="E27" s="16" t="s"/>
       <x:c r="F27" s="16" t="s"/>
       <x:c r="G27" s="16" t="s"/>
       <x:c r="H27" s="16" t="s"/>
       <x:c r="I27" s="16" t="s"/>
-      <x:c r="J27" s="16" t="s"/>
-      <x:c r="K27" s="16" t="s"/>
-      <x:c r="L27" s="16" t="s"/>
-      <x:c r="M27" s="16" t="s"/>
-      <x:c r="N27" s="16" t="s"/>
-      <x:c r="O27" s="16" t="s"/>
-      <x:c r="P27" s="16" t="s"/>
+      <x:c r="J27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K27" s="16" t="n">
+        <x:v>87.0581666666694</x:v>
+      </x:c>
+      <x:c r="L27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M27" s="16" t="n">
+        <x:v>771.886666666658</x:v>
+      </x:c>
+      <x:c r="N27" s="16" t="n">
+        <x:v>2918.46083333335</x:v>
+      </x:c>
+      <x:c r="O27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P27" s="16" t="n">
+        <x:v>470.472208333333</x:v>
+      </x:c>
+      <x:c r="Q27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R27" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:146">
       <x:c r="B28" s="14" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>351.447333333333</x:v>
       </x:c>
       <x:c r="D28" s="15" t="n">
-        <x:v>397307.468458334</x:v>
-      </x:c>
-      <x:c r="E28" s="16" t="s"/>
-      <x:c r="F28" s="16" t="s"/>
-      <x:c r="G28" s="16" t="s"/>
-      <x:c r="H28" s="16" t="s"/>
-      <x:c r="I28" s="16" t="s"/>
+        <x:v>144896.117791667</x:v>
+      </x:c>
+      <x:c r="E28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F28" s="16" t="n">
+        <x:v>708.81487500004</x:v>
+      </x:c>
+      <x:c r="G28" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H28" s="16" t="n">
+        <x:v>624.92804166663</x:v>
+      </x:c>
+      <x:c r="I28" s="16" t="n">
+        <x:v>423.493749999994</x:v>
+      </x:c>
       <x:c r="J28" s="16" t="s"/>
       <x:c r="K28" s="16" t="s"/>
       <x:c r="L28" s="16" t="s"/>
@@ -2269,44 +2446,82 @@
       <x:c r="N28" s="16" t="s"/>
       <x:c r="O28" s="16" t="s"/>
       <x:c r="P28" s="16" t="s"/>
+      <x:c r="Q28" s="16" t="s"/>
+      <x:c r="R28" s="16" t="s"/>
     </x:row>
     <x:row r="29" spans="1:146">
       <x:c r="B29" s="14" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>227.554977564102</x:v>
       </x:c>
       <x:c r="D29" s="15" t="n">
-        <x:v>633485.057458332</x:v>
-      </x:c>
-      <x:c r="E29" s="16" t="s"/>
-      <x:c r="F29" s="16" t="s"/>
-      <x:c r="G29" s="16" t="s"/>
-      <x:c r="H29" s="16" t="s"/>
-      <x:c r="I29" s="16" t="s"/>
-      <x:c r="J29" s="16" t="s"/>
-      <x:c r="K29" s="16" t="s"/>
-      <x:c r="L29" s="16" t="s"/>
-      <x:c r="M29" s="16" t="s"/>
-      <x:c r="N29" s="16" t="s"/>
-      <x:c r="O29" s="16" t="s"/>
-      <x:c r="P29" s="16" t="s"/>
+        <x:v>66670.3914583332</x:v>
+      </x:c>
+      <x:c r="E29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29" s="16" t="n">
+        <x:v>737.157458333328</x:v>
+      </x:c>
+      <x:c r="G29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="16" t="n">
+        <x:v>42.4923333333354</x:v>
+      </x:c>
+      <x:c r="I29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J29" s="16" t="n">
+        <x:v>1626.22233333333</x:v>
+      </x:c>
+      <x:c r="K29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N29" s="16" t="n">
+        <x:v>163.762666666662</x:v>
+      </x:c>
+      <x:c r="O29" s="16" t="n">
+        <x:v>113.935666666672</x:v>
+      </x:c>
+      <x:c r="P29" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q29" s="16" t="n">
+        <x:v>274.644249999998</x:v>
+      </x:c>
+      <x:c r="R29" s="16" t="s"/>
     </x:row>
     <x:row r="30" spans="1:146">
       <x:c r="B30" s="14" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C30" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>169.218958333334</x:v>
       </x:c>
       <x:c r="D30" s="15" t="n">
-        <x:v>303978.928916667</x:v>
-      </x:c>
-      <x:c r="E30" s="16" t="s"/>
-      <x:c r="F30" s="16" t="s"/>
-      <x:c r="G30" s="16" t="s"/>
-      <x:c r="H30" s="16" t="s"/>
+        <x:v>68607.1345833331</x:v>
+      </x:c>
+      <x:c r="E30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30" s="16" t="n">
+        <x:v>673.673541666671</x:v>
+      </x:c>
+      <x:c r="G30" s="16" t="n">
+        <x:v>172.421249999999</x:v>
+      </x:c>
+      <x:c r="H30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I30" s="16" t="s"/>
       <x:c r="J30" s="16" t="s"/>
       <x:c r="K30" s="16" t="s"/>
@@ -2315,29 +2530,53 @@
       <x:c r="N30" s="16" t="s"/>
       <x:c r="O30" s="16" t="s"/>
       <x:c r="P30" s="16" t="s"/>
+      <x:c r="Q30" s="16" t="s"/>
+      <x:c r="R30" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:146">
       <x:c r="B31" s="14" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="C31" s="15" t="n">
-        <x:v>0</x:v>
+        <x:v>57.234481481486</x:v>
       </x:c>
       <x:c r="D31" s="15" t="n">
-        <x:v>213607.714125</x:v>
-      </x:c>
-      <x:c r="E31" s="16" t="s"/>
-      <x:c r="F31" s="16" t="s"/>
-      <x:c r="G31" s="16" t="s"/>
-      <x:c r="H31" s="16" t="s"/>
-      <x:c r="I31" s="16" t="s"/>
+        <x:v>672513.565749998</x:v>
+      </x:c>
+      <x:c r="E31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="J31" s="16" t="s"/>
       <x:c r="K31" s="16" t="s"/>
       <x:c r="L31" s="16" t="s"/>
       <x:c r="M31" s="16" t="s"/>
-      <x:c r="N31" s="16" t="s"/>
-      <x:c r="O31" s="16" t="s"/>
-      <x:c r="P31" s="16" t="s"/>
+      <x:c r="N31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O31" s="16" t="n">
+        <x:v>515.110333333374</x:v>
+      </x:c>
+      <x:c r="P31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q31" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R31" s="16" t="s"/>
     </x:row>
     <x:row r="32" spans="1:146">
       <x:c r="B32" s="14" t="s">
@@ -2347,7 +2586,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="15" t="n">
-        <x:v>1173441.73366666</x:v>
+        <x:v>515226.381499998</x:v>
       </x:c>
       <x:c r="E32" s="16" t="s"/>
       <x:c r="F32" s="16" t="s"/>
@@ -2361,6 +2600,8 @@
       <x:c r="N32" s="16" t="s"/>
       <x:c r="O32" s="16" t="s"/>
       <x:c r="P32" s="16" t="s"/>
+      <x:c r="Q32" s="16" t="s"/>
+      <x:c r="R32" s="16" t="s"/>
     </x:row>
     <x:row r="33" spans="1:146">
       <x:c r="B33" s="14" t="s">
@@ -2370,7 +2611,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="15" t="n">
-        <x:v>176425.9805</x:v>
+        <x:v>397307.468458334</x:v>
       </x:c>
       <x:c r="E33" s="16" t="s"/>
       <x:c r="F33" s="16" t="s"/>
@@ -2384,6 +2625,8 @@
       <x:c r="N33" s="16" t="s"/>
       <x:c r="O33" s="16" t="s"/>
       <x:c r="P33" s="16" t="s"/>
+      <x:c r="Q33" s="16" t="s"/>
+      <x:c r="R33" s="16" t="s"/>
     </x:row>
     <x:row r="34" spans="1:146">
       <x:c r="B34" s="14" t="s">
@@ -2393,7 +2636,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="15" t="n">
-        <x:v>765821.547124999</x:v>
+        <x:v>633485.057458332</x:v>
       </x:c>
       <x:c r="E34" s="16" t="s"/>
       <x:c r="F34" s="16" t="s"/>
@@ -2407,6 +2650,8 @@
       <x:c r="N34" s="16" t="s"/>
       <x:c r="O34" s="16" t="s"/>
       <x:c r="P34" s="16" t="s"/>
+      <x:c r="Q34" s="16" t="s"/>
+      <x:c r="R34" s="16" t="s"/>
     </x:row>
     <x:row r="35" spans="1:146">
       <x:c r="B35" s="14" t="s">
@@ -2416,7 +2661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="15" t="n">
-        <x:v>647141.342291665</x:v>
+        <x:v>303978.928916667</x:v>
       </x:c>
       <x:c r="E35" s="16" t="s"/>
       <x:c r="F35" s="16" t="s"/>
@@ -2430,6 +2675,8 @@
       <x:c r="N35" s="16" t="s"/>
       <x:c r="O35" s="16" t="s"/>
       <x:c r="P35" s="16" t="s"/>
+      <x:c r="Q35" s="16" t="s"/>
+      <x:c r="R35" s="16" t="s"/>
     </x:row>
     <x:row r="36" spans="1:146">
       <x:c r="B36" s="14" t="s">
@@ -2439,7 +2686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="15" t="n">
-        <x:v>158567.575875</x:v>
+        <x:v>213607.714125</x:v>
       </x:c>
       <x:c r="E36" s="16" t="s"/>
       <x:c r="F36" s="16" t="s"/>
@@ -2453,6 +2700,8 @@
       <x:c r="N36" s="16" t="s"/>
       <x:c r="O36" s="16" t="s"/>
       <x:c r="P36" s="16" t="s"/>
+      <x:c r="Q36" s="16" t="s"/>
+      <x:c r="R36" s="16" t="s"/>
     </x:row>
     <x:row r="37" spans="1:146">
       <x:c r="B37" s="14" t="s">
@@ -2462,7 +2711,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="15" t="n">
-        <x:v>155008.983833333</x:v>
+        <x:v>1173441.73366666</x:v>
       </x:c>
       <x:c r="E37" s="16" t="s"/>
       <x:c r="F37" s="16" t="s"/>
@@ -2476,6 +2725,8 @@
       <x:c r="N37" s="16" t="s"/>
       <x:c r="O37" s="16" t="s"/>
       <x:c r="P37" s="16" t="s"/>
+      <x:c r="Q37" s="16" t="s"/>
+      <x:c r="R37" s="16" t="s"/>
     </x:row>
     <x:row r="38" spans="1:146">
       <x:c r="B38" s="14" t="s">
@@ -2485,14 +2736,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="15" t="n">
-        <x:v>540247.262416667</x:v>
-      </x:c>
-      <x:c r="E38" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F38" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>176425.9805</x:v>
+      </x:c>
+      <x:c r="E38" s="16" t="s"/>
+      <x:c r="F38" s="16" t="s"/>
       <x:c r="G38" s="16" t="s"/>
       <x:c r="H38" s="16" t="s"/>
       <x:c r="I38" s="16" t="s"/>
@@ -2503,6 +2750,8 @@
       <x:c r="N38" s="16" t="s"/>
       <x:c r="O38" s="16" t="s"/>
       <x:c r="P38" s="16" t="s"/>
+      <x:c r="Q38" s="16" t="s"/>
+      <x:c r="R38" s="16" t="s"/>
     </x:row>
     <x:row r="39" spans="1:146">
       <x:c r="B39" s="14" t="s">
@@ -2512,7 +2761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="15" t="n">
-        <x:v>305718.142041667</x:v>
+        <x:v>765821.547124999</x:v>
       </x:c>
       <x:c r="E39" s="16" t="s"/>
       <x:c r="F39" s="16" t="s"/>
@@ -2526,6 +2775,8 @@
       <x:c r="N39" s="16" t="s"/>
       <x:c r="O39" s="16" t="s"/>
       <x:c r="P39" s="16" t="s"/>
+      <x:c r="Q39" s="16" t="s"/>
+      <x:c r="R39" s="16" t="s"/>
     </x:row>
     <x:row r="40" spans="1:146">
       <x:c r="B40" s="14" t="s">
@@ -2535,7 +2786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="15" t="n">
-        <x:v>337136.300875</x:v>
+        <x:v>647141.342291665</x:v>
       </x:c>
       <x:c r="E40" s="16" t="s"/>
       <x:c r="F40" s="16" t="s"/>
@@ -2549,6 +2800,8 @@
       <x:c r="N40" s="16" t="s"/>
       <x:c r="O40" s="16" t="s"/>
       <x:c r="P40" s="16" t="s"/>
+      <x:c r="Q40" s="16" t="s"/>
+      <x:c r="R40" s="16" t="s"/>
     </x:row>
     <x:row r="41" spans="1:146">
       <x:c r="B41" s="14" t="s">
@@ -2558,7 +2811,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="15" t="n">
-        <x:v>303003.885333333</x:v>
+        <x:v>158567.575875</x:v>
       </x:c>
       <x:c r="E41" s="16" t="s"/>
       <x:c r="F41" s="16" t="s"/>
@@ -2572,6 +2825,8 @@
       <x:c r="N41" s="16" t="s"/>
       <x:c r="O41" s="16" t="s"/>
       <x:c r="P41" s="16" t="s"/>
+      <x:c r="Q41" s="16" t="s"/>
+      <x:c r="R41" s="16" t="s"/>
     </x:row>
     <x:row r="42" spans="1:146">
       <x:c r="B42" s="14" t="s">
@@ -2581,7 +2836,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="15" t="n">
-        <x:v>239830.318333333</x:v>
+        <x:v>155008.983833333</x:v>
       </x:c>
       <x:c r="E42" s="16" t="s"/>
       <x:c r="F42" s="16" t="s"/>
@@ -2595,6 +2850,8 @@
       <x:c r="N42" s="16" t="s"/>
       <x:c r="O42" s="16" t="s"/>
       <x:c r="P42" s="16" t="s"/>
+      <x:c r="Q42" s="16" t="s"/>
+      <x:c r="R42" s="16" t="s"/>
     </x:row>
     <x:row r="43" spans="1:146">
       <x:c r="B43" s="14" t="s">
@@ -2604,7 +2861,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D43" s="15" t="n">
-        <x:v>305944.612375</x:v>
+        <x:v>540247.262416667</x:v>
       </x:c>
       <x:c r="E43" s="16" t="n">
         <x:v>0</x:v>
@@ -2612,12 +2869,8 @@
       <x:c r="F43" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G43" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="G43" s="16" t="s"/>
+      <x:c r="H43" s="16" t="s"/>
       <x:c r="I43" s="16" t="s"/>
       <x:c r="J43" s="16" t="s"/>
       <x:c r="K43" s="16" t="s"/>
@@ -2626,6 +2879,8 @@
       <x:c r="N43" s="16" t="s"/>
       <x:c r="O43" s="16" t="s"/>
       <x:c r="P43" s="16" t="s"/>
+      <x:c r="Q43" s="16" t="s"/>
+      <x:c r="R43" s="16" t="s"/>
     </x:row>
     <x:row r="44" spans="1:146">
       <x:c r="B44" s="14" t="s">
@@ -2635,7 +2890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D44" s="15" t="n">
-        <x:v>421084.426291668</x:v>
+        <x:v>305718.142041667</x:v>
       </x:c>
       <x:c r="E44" s="16" t="s"/>
       <x:c r="F44" s="16" t="s"/>
@@ -2649,6 +2904,8 @@
       <x:c r="N44" s="16" t="s"/>
       <x:c r="O44" s="16" t="s"/>
       <x:c r="P44" s="16" t="s"/>
+      <x:c r="Q44" s="16" t="s"/>
+      <x:c r="R44" s="16" t="s"/>
     </x:row>
     <x:row r="45" spans="1:146">
       <x:c r="B45" s="14" t="s">
@@ -2658,7 +2915,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="15" t="n">
-        <x:v>925342.059125002</x:v>
+        <x:v>337136.300875</x:v>
       </x:c>
       <x:c r="E45" s="16" t="s"/>
       <x:c r="F45" s="16" t="s"/>
@@ -2672,6 +2929,8 @@
       <x:c r="N45" s="16" t="s"/>
       <x:c r="O45" s="16" t="s"/>
       <x:c r="P45" s="16" t="s"/>
+      <x:c r="Q45" s="16" t="s"/>
+      <x:c r="R45" s="16" t="s"/>
     </x:row>
     <x:row r="46" spans="1:146">
       <x:c r="B46" s="14" t="s">
@@ -2681,7 +2940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="15" t="n">
-        <x:v>232119.451625</x:v>
+        <x:v>303003.885333333</x:v>
       </x:c>
       <x:c r="E46" s="16" t="s"/>
       <x:c r="F46" s="16" t="s"/>
@@ -2695,6 +2954,8 @@
       <x:c r="N46" s="16" t="s"/>
       <x:c r="O46" s="16" t="s"/>
       <x:c r="P46" s="16" t="s"/>
+      <x:c r="Q46" s="16" t="s"/>
+      <x:c r="R46" s="16" t="s"/>
     </x:row>
     <x:row r="47" spans="1:146">
       <x:c r="B47" s="14" t="s">
@@ -2704,7 +2965,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="15" t="n">
-        <x:v>237853.435458333</x:v>
+        <x:v>239830.318333333</x:v>
       </x:c>
       <x:c r="E47" s="16" t="s"/>
       <x:c r="F47" s="16" t="s"/>
@@ -2718,6 +2979,8 @@
       <x:c r="N47" s="16" t="s"/>
       <x:c r="O47" s="16" t="s"/>
       <x:c r="P47" s="16" t="s"/>
+      <x:c r="Q47" s="16" t="s"/>
+      <x:c r="R47" s="16" t="s"/>
     </x:row>
     <x:row r="48" spans="1:146">
       <x:c r="B48" s="14" t="s">
@@ -2727,12 +2990,20 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="15" t="n">
-        <x:v>320510.015708334</x:v>
-      </x:c>
-      <x:c r="E48" s="16" t="s"/>
-      <x:c r="F48" s="16" t="s"/>
-      <x:c r="G48" s="16" t="s"/>
-      <x:c r="H48" s="16" t="s"/>
+        <x:v>305944.612375</x:v>
+      </x:c>
+      <x:c r="E48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="I48" s="16" t="s"/>
       <x:c r="J48" s="16" t="s"/>
       <x:c r="K48" s="16" t="s"/>
@@ -2741,6 +3012,8 @@
       <x:c r="N48" s="16" t="s"/>
       <x:c r="O48" s="16" t="s"/>
       <x:c r="P48" s="16" t="s"/>
+      <x:c r="Q48" s="16" t="s"/>
+      <x:c r="R48" s="16" t="s"/>
     </x:row>
     <x:row r="49" spans="1:146">
       <x:c r="B49" s="14" t="s">
@@ -2750,7 +3023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="15" t="n">
-        <x:v>225504.3581875</x:v>
+        <x:v>421084.426291668</x:v>
       </x:c>
       <x:c r="E49" s="16" t="s"/>
       <x:c r="F49" s="16" t="s"/>
@@ -2764,6 +3037,8 @@
       <x:c r="N49" s="16" t="s"/>
       <x:c r="O49" s="16" t="s"/>
       <x:c r="P49" s="16" t="s"/>
+      <x:c r="Q49" s="16" t="s"/>
+      <x:c r="R49" s="16" t="s"/>
     </x:row>
     <x:row r="50" spans="1:146">
       <x:c r="B50" s="14" t="s">
@@ -2773,7 +3048,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D50" s="15" t="n">
-        <x:v>348685.416291666</x:v>
+        <x:v>925342.059125002</x:v>
       </x:c>
       <x:c r="E50" s="16" t="s"/>
       <x:c r="F50" s="16" t="s"/>
@@ -2787,6 +3062,8 @@
       <x:c r="N50" s="16" t="s"/>
       <x:c r="O50" s="16" t="s"/>
       <x:c r="P50" s="16" t="s"/>
+      <x:c r="Q50" s="16" t="s"/>
+      <x:c r="R50" s="16" t="s"/>
     </x:row>
     <x:row r="51" spans="1:146">
       <x:c r="B51" s="14" t="s">
@@ -2796,7 +3073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D51" s="15" t="n">
-        <x:v>166277.320166666</x:v>
+        <x:v>232119.451625</x:v>
       </x:c>
       <x:c r="E51" s="16" t="s"/>
       <x:c r="F51" s="16" t="s"/>
@@ -2810,6 +3087,8 @@
       <x:c r="N51" s="16" t="s"/>
       <x:c r="O51" s="16" t="s"/>
       <x:c r="P51" s="16" t="s"/>
+      <x:c r="Q51" s="16" t="s"/>
+      <x:c r="R51" s="16" t="s"/>
     </x:row>
     <x:row r="52" spans="1:146">
       <x:c r="B52" s="14" t="s">
@@ -2819,7 +3098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="15" t="n">
-        <x:v>325065.876124999</x:v>
+        <x:v>237853.435458333</x:v>
       </x:c>
       <x:c r="E52" s="16" t="s"/>
       <x:c r="F52" s="16" t="s"/>
@@ -2833,6 +3112,8 @@
       <x:c r="N52" s="16" t="s"/>
       <x:c r="O52" s="16" t="s"/>
       <x:c r="P52" s="16" t="s"/>
+      <x:c r="Q52" s="16" t="s"/>
+      <x:c r="R52" s="16" t="s"/>
     </x:row>
     <x:row r="53" spans="1:146">
       <x:c r="B53" s="14" t="s">
@@ -2842,7 +3123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="15" t="n">
-        <x:v>175729.8505</x:v>
+        <x:v>320510.015708334</x:v>
       </x:c>
       <x:c r="E53" s="16" t="s"/>
       <x:c r="F53" s="16" t="s"/>
@@ -2856,6 +3137,8 @@
       <x:c r="N53" s="16" t="s"/>
       <x:c r="O53" s="16" t="s"/>
       <x:c r="P53" s="16" t="s"/>
+      <x:c r="Q53" s="16" t="s"/>
+      <x:c r="R53" s="16" t="s"/>
     </x:row>
     <x:row r="54" spans="1:146">
       <x:c r="B54" s="14" t="s">
@@ -2865,7 +3148,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="15" t="n">
-        <x:v>117683.979895833</x:v>
+        <x:v>225504.3581875</x:v>
       </x:c>
       <x:c r="E54" s="16" t="s"/>
       <x:c r="F54" s="16" t="s"/>
@@ -2879,6 +3162,8 @@
       <x:c r="N54" s="16" t="s"/>
       <x:c r="O54" s="16" t="s"/>
       <x:c r="P54" s="16" t="s"/>
+      <x:c r="Q54" s="16" t="s"/>
+      <x:c r="R54" s="16" t="s"/>
     </x:row>
     <x:row r="55" spans="1:146">
       <x:c r="B55" s="14" t="s">
@@ -2888,36 +3173,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="15" t="n">
-        <x:v>55393.2681666666</x:v>
-      </x:c>
-      <x:c r="E55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L55" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>348685.416291666</x:v>
+      </x:c>
+      <x:c r="E55" s="16" t="s"/>
+      <x:c r="F55" s="16" t="s"/>
+      <x:c r="G55" s="16" t="s"/>
+      <x:c r="H55" s="16" t="s"/>
+      <x:c r="I55" s="16" t="s"/>
+      <x:c r="J55" s="16" t="s"/>
+      <x:c r="K55" s="16" t="s"/>
+      <x:c r="L55" s="16" t="s"/>
       <x:c r="M55" s="16" t="s"/>
       <x:c r="N55" s="16" t="s"/>
       <x:c r="O55" s="16" t="s"/>
       <x:c r="P55" s="16" t="s"/>
+      <x:c r="Q55" s="16" t="s"/>
+      <x:c r="R55" s="16" t="s"/>
     </x:row>
     <x:row r="56" spans="1:146">
       <x:c r="B56" s="14" t="s">
@@ -2927,7 +3198,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="15" t="n">
-        <x:v>78198.8486249999</x:v>
+        <x:v>166277.320166666</x:v>
       </x:c>
       <x:c r="E56" s="16" t="s"/>
       <x:c r="F56" s="16" t="s"/>
@@ -2941,6 +3212,8 @@
       <x:c r="N56" s="16" t="s"/>
       <x:c r="O56" s="16" t="s"/>
       <x:c r="P56" s="16" t="s"/>
+      <x:c r="Q56" s="16" t="s"/>
+      <x:c r="R56" s="16" t="s"/>
     </x:row>
     <x:row r="57" spans="1:146">
       <x:c r="B57" s="14" t="s">
@@ -2950,7 +3223,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="15" t="n">
-        <x:v>318586.891874999</x:v>
+        <x:v>325065.876124999</x:v>
       </x:c>
       <x:c r="E57" s="16" t="s"/>
       <x:c r="F57" s="16" t="s"/>
@@ -2964,6 +3237,8 @@
       <x:c r="N57" s="16" t="s"/>
       <x:c r="O57" s="16" t="s"/>
       <x:c r="P57" s="16" t="s"/>
+      <x:c r="Q57" s="16" t="s"/>
+      <x:c r="R57" s="16" t="s"/>
     </x:row>
     <x:row r="58" spans="1:146">
       <x:c r="B58" s="14" t="s">
@@ -2973,7 +3248,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="15" t="n">
-        <x:v>19692.4385</x:v>
+        <x:v>175729.8505</x:v>
       </x:c>
       <x:c r="E58" s="16" t="s"/>
       <x:c r="F58" s="16" t="s"/>
@@ -2987,6 +3262,8 @@
       <x:c r="N58" s="16" t="s"/>
       <x:c r="O58" s="16" t="s"/>
       <x:c r="P58" s="16" t="s"/>
+      <x:c r="Q58" s="16" t="s"/>
+      <x:c r="R58" s="16" t="s"/>
     </x:row>
     <x:row r="59" spans="1:146">
       <x:c r="B59" s="14" t="s">
@@ -2996,36 +3273,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D59" s="15" t="n">
-        <x:v>52882.0911458332</x:v>
-      </x:c>
-      <x:c r="E59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L59" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>117683.979895833</x:v>
+      </x:c>
+      <x:c r="E59" s="16" t="s"/>
+      <x:c r="F59" s="16" t="s"/>
+      <x:c r="G59" s="16" t="s"/>
+      <x:c r="H59" s="16" t="s"/>
+      <x:c r="I59" s="16" t="s"/>
+      <x:c r="J59" s="16" t="s"/>
+      <x:c r="K59" s="16" t="s"/>
+      <x:c r="L59" s="16" t="s"/>
       <x:c r="M59" s="16" t="s"/>
       <x:c r="N59" s="16" t="s"/>
       <x:c r="O59" s="16" t="s"/>
       <x:c r="P59" s="16" t="s"/>
+      <x:c r="Q59" s="16" t="s"/>
+      <x:c r="R59" s="16" t="s"/>
     </x:row>
     <x:row r="60" spans="1:146">
       <x:c r="B60" s="14" t="s">
@@ -3035,20 +3298,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="15" t="n">
-        <x:v>20232.1602916667</x:v>
-      </x:c>
-      <x:c r="E60" s="16" t="s"/>
-      <x:c r="F60" s="16" t="s"/>
-      <x:c r="G60" s="16" t="s"/>
-      <x:c r="H60" s="16" t="s"/>
-      <x:c r="I60" s="16" t="s"/>
-      <x:c r="J60" s="16" t="s"/>
-      <x:c r="K60" s="16" t="s"/>
-      <x:c r="L60" s="16" t="s"/>
+        <x:v>55393.2681666666</x:v>
+      </x:c>
+      <x:c r="E60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L60" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="M60" s="16" t="s"/>
       <x:c r="N60" s="16" t="s"/>
       <x:c r="O60" s="16" t="s"/>
       <x:c r="P60" s="16" t="s"/>
+      <x:c r="Q60" s="16" t="s"/>
+      <x:c r="R60" s="16" t="s"/>
     </x:row>
     <x:row r="61" spans="1:146">
       <x:c r="B61" s="14" t="s">
@@ -3058,7 +3339,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="15" t="n">
-        <x:v>528468.793000001</x:v>
+        <x:v>78198.8486249999</x:v>
       </x:c>
       <x:c r="E61" s="16" t="s"/>
       <x:c r="F61" s="16" t="s"/>
@@ -3072,6 +3353,8 @@
       <x:c r="N61" s="16" t="s"/>
       <x:c r="O61" s="16" t="s"/>
       <x:c r="P61" s="16" t="s"/>
+      <x:c r="Q61" s="16" t="s"/>
+      <x:c r="R61" s="16" t="s"/>
     </x:row>
     <x:row r="62" spans="1:146">
       <x:c r="B62" s="14" t="s">
@@ -3081,34 +3364,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="15" t="n">
-        <x:v>49428.7442916668</x:v>
-      </x:c>
-      <x:c r="E62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K62" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+        <x:v>318586.891874999</x:v>
+      </x:c>
+      <x:c r="E62" s="16" t="s"/>
+      <x:c r="F62" s="16" t="s"/>
+      <x:c r="G62" s="16" t="s"/>
+      <x:c r="H62" s="16" t="s"/>
+      <x:c r="I62" s="16" t="s"/>
+      <x:c r="J62" s="16" t="s"/>
+      <x:c r="K62" s="16" t="s"/>
       <x:c r="L62" s="16" t="s"/>
       <x:c r="M62" s="16" t="s"/>
       <x:c r="N62" s="16" t="s"/>
       <x:c r="O62" s="16" t="s"/>
       <x:c r="P62" s="16" t="s"/>
+      <x:c r="Q62" s="16" t="s"/>
+      <x:c r="R62" s="16" t="s"/>
     </x:row>
     <x:row r="63" spans="1:146">
       <x:c r="B63" s="14" t="s">
@@ -3118,30 +3389,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D63" s="15" t="n">
-        <x:v>48761.3562708331</x:v>
+        <x:v>19692.4385</x:v>
       </x:c>
       <x:c r="E63" s="16" t="s"/>
       <x:c r="F63" s="16" t="s"/>
       <x:c r="G63" s="16" t="s"/>
-      <x:c r="H63" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I63" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J63" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K63" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L63" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="H63" s="16" t="s"/>
+      <x:c r="I63" s="16" t="s"/>
+      <x:c r="J63" s="16" t="s"/>
+      <x:c r="K63" s="16" t="s"/>
+      <x:c r="L63" s="16" t="s"/>
       <x:c r="M63" s="16" t="s"/>
       <x:c r="N63" s="16" t="s"/>
       <x:c r="O63" s="16" t="s"/>
       <x:c r="P63" s="16" t="s"/>
+      <x:c r="Q63" s="16" t="s"/>
+      <x:c r="R63" s="16" t="s"/>
     </x:row>
     <x:row r="64" spans="1:146">
       <x:c r="B64" s="14" t="s">
@@ -3151,20 +3414,187 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="15" t="n">
-        <x:v>66884.0796666665</x:v>
-      </x:c>
-      <x:c r="E64" s="16" t="s"/>
-      <x:c r="F64" s="16" t="s"/>
-      <x:c r="G64" s="16" t="s"/>
-      <x:c r="H64" s="16" t="s"/>
-      <x:c r="I64" s="16" t="s"/>
-      <x:c r="J64" s="16" t="s"/>
-      <x:c r="K64" s="16" t="s"/>
-      <x:c r="L64" s="16" t="s"/>
+        <x:v>52882.0911458332</x:v>
+      </x:c>
+      <x:c r="E64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L64" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="M64" s="16" t="s"/>
       <x:c r="N64" s="16" t="s"/>
       <x:c r="O64" s="16" t="s"/>
-      <x:c r="P64" s="16" t="n">
+      <x:c r="P64" s="16" t="s"/>
+      <x:c r="Q64" s="16" t="s"/>
+      <x:c r="R64" s="16" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:146">
+      <x:c r="B65" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C65" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D65" s="15" t="n">
+        <x:v>20232.1602916667</x:v>
+      </x:c>
+      <x:c r="E65" s="16" t="s"/>
+      <x:c r="F65" s="16" t="s"/>
+      <x:c r="G65" s="16" t="s"/>
+      <x:c r="H65" s="16" t="s"/>
+      <x:c r="I65" s="16" t="s"/>
+      <x:c r="J65" s="16" t="s"/>
+      <x:c r="K65" s="16" t="s"/>
+      <x:c r="L65" s="16" t="s"/>
+      <x:c r="M65" s="16" t="s"/>
+      <x:c r="N65" s="16" t="s"/>
+      <x:c r="O65" s="16" t="s"/>
+      <x:c r="P65" s="16" t="s"/>
+      <x:c r="Q65" s="16" t="s"/>
+      <x:c r="R65" s="16" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:146">
+      <x:c r="B66" s="14" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C66" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D66" s="15" t="n">
+        <x:v>528468.793000001</x:v>
+      </x:c>
+      <x:c r="E66" s="16" t="s"/>
+      <x:c r="F66" s="16" t="s"/>
+      <x:c r="G66" s="16" t="s"/>
+      <x:c r="H66" s="16" t="s"/>
+      <x:c r="I66" s="16" t="s"/>
+      <x:c r="J66" s="16" t="s"/>
+      <x:c r="K66" s="16" t="s"/>
+      <x:c r="L66" s="16" t="s"/>
+      <x:c r="M66" s="16" t="s"/>
+      <x:c r="N66" s="16" t="s"/>
+      <x:c r="O66" s="16" t="s"/>
+      <x:c r="P66" s="16" t="s"/>
+      <x:c r="Q66" s="16" t="s"/>
+      <x:c r="R66" s="16" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:146">
+      <x:c r="B67" s="14" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C67" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D67" s="15" t="n">
+        <x:v>49428.7442916668</x:v>
+      </x:c>
+      <x:c r="E67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K67" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L67" s="16" t="s"/>
+      <x:c r="M67" s="16" t="s"/>
+      <x:c r="N67" s="16" t="s"/>
+      <x:c r="O67" s="16" t="s"/>
+      <x:c r="P67" s="16" t="s"/>
+      <x:c r="Q67" s="16" t="s"/>
+      <x:c r="R67" s="16" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:146">
+      <x:c r="B68" s="14" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C68" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D68" s="15" t="n">
+        <x:v>48761.3562708331</x:v>
+      </x:c>
+      <x:c r="E68" s="16" t="s"/>
+      <x:c r="F68" s="16" t="s"/>
+      <x:c r="G68" s="16" t="s"/>
+      <x:c r="H68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L68" s="16" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M68" s="16" t="s"/>
+      <x:c r="N68" s="16" t="s"/>
+      <x:c r="O68" s="16" t="s"/>
+      <x:c r="P68" s="16" t="s"/>
+      <x:c r="Q68" s="16" t="s"/>
+      <x:c r="R68" s="16" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:146">
+      <x:c r="B69" s="14" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C69" s="15" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D69" s="15" t="n">
+        <x:v>166008.633666667</x:v>
+      </x:c>
+      <x:c r="E69" s="16" t="s"/>
+      <x:c r="F69" s="16" t="s"/>
+      <x:c r="G69" s="16" t="s"/>
+      <x:c r="H69" s="16" t="s"/>
+      <x:c r="I69" s="16" t="s"/>
+      <x:c r="J69" s="16" t="s"/>
+      <x:c r="K69" s="16" t="s"/>
+      <x:c r="L69" s="16" t="s"/>
+      <x:c r="M69" s="16" t="s"/>
+      <x:c r="N69" s="16" t="s"/>
+      <x:c r="O69" s="16" t="s"/>
+      <x:c r="P69" s="16" t="s"/>
+      <x:c r="Q69" s="16" t="s"/>
+      <x:c r="R69" s="16" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -3186,22 +3616,22 @@
   <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <x:selection activeCell="C77" sqref="C77"/>
+      <x:selection activeCell="C82" sqref="C82"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
     <x:col min="1" max="1" width="9.285156" style="0" hidden="1" customWidth="1"/>
     <x:col min="2" max="2" width="21.410625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.980625" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="5" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.410625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="15.980625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.270625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="13.270625" style="0" customWidth="1"/>
     <x:col min="9" max="10" width="15.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="14.700625" style="0" customWidth="1"/>
-    <x:col min="12" max="15" width="15.980625" style="0" customWidth="1"/>
-    <x:col min="16" max="17" width="13.270625" style="0" customWidth="1"/>
+    <x:col min="12" max="17" width="15.980625" style="0" customWidth="1"/>
     <x:col min="18" max="23" width="8" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -3210,7 +3640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D1" s="13">
         <x:v>44395</x:v>
@@ -3257,1502 +3687,1502 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D2" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E2" s="19" t="s">
-        <x:v>69</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F2" s="19" t="s">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G2" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H2" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I2" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J2" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="K2" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="L2" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M2" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="N2" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O2" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P2" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q2" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B3" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G3" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L3" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M3" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N3" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O3" s="19" t="s">
-        <x:v>87</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
       <x:c r="B4" s="14" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E4" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F4" s="19" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G4" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H4" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I4" s="19" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="J4" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O4" s="19" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="P4" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="Q4" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:36">
       <x:c r="B5" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
       <x:c r="B6" s="14" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>111</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>112</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>113</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>114</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>116</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O6" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P6" s="19" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="K6" s="19" t="s">
+      <x:c r="Q6" s="19" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="L6" s="19" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="M6" s="19" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="N6" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="O6" s="19" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="P6" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="Q6" s="19" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
       <x:c r="B7" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
       <x:c r="B8" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D8" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E8" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F8" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G8" s="19" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="H8" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I8" s="19" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="J8" s="19" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D8" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E8" s="19" t="s">
+      <x:c r="K8" s="19" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="L8" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="M8" s="19" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="F8" s="19" t="s">
+      <x:c r="N8" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="O8" s="19" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="G8" s="19" t="s">
+      <x:c r="P8" s="19" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="H8" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I8" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J8" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="K8" s="19" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="L8" s="19" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="M8" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="N8" s="19" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="O8" s="19" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="P8" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
       <x:c r="B9" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D9" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E9" s="19" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F9" s="19" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G9" s="19" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H9" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I9" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J9" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K9" s="19" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D9" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E9" s="19" t="s">
+      <x:c r="L9" s="19" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="F9" s="19" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G9" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="H9" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I9" s="19" t="s">
+      <x:c r="M9" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="N9" s="19" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="J9" s="19" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="K9" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L9" s="19" t="s">
+      <x:c r="O9" s="19" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="M9" s="19" t="s">
+      <x:c r="P9" s="19" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="N9" s="19" t="s">
+      <x:c r="Q9" s="19" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="O9" s="19" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="P9" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="Q9" s="19" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D10" s="19" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="D10" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>139</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>140</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>141</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
       <x:c r="B11" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D11" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E11" s="19" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D11" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E11" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>143</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>145</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>146</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>147</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>148</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>149</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>150</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>151</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
       <x:c r="B12" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D12" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E12" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F12" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G12" s="19" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="H12" s="19" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="I12" s="19" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="J12" s="19" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="K12" s="19" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="L12" s="19" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="M12" s="19" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="N12" s="19" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I12" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J12" s="19" t="s">
+      <x:c r="O12" s="19" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="K12" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L12" s="19" t="s">
+      <x:c r="P12" s="19" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="M12" s="19" t="s">
+      <x:c r="Q12" s="19" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="N12" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="O12" s="19" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="P12" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="Q12" s="19" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
       <x:c r="B13" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="18" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D13" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="19" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D13" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E13" s="19" t="s">
+      <x:c r="F13" s="19" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G13" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H13" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I13" s="19" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="F13" s="19" t="s">
+      <x:c r="J13" s="19" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="G13" s="19" t="s">
+      <x:c r="K13" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L13" s="19" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="H13" s="19" t="s">
+      <x:c r="M13" s="19" t="s">
         <x:v>161</x:v>
-      </x:c>
-      <x:c r="I13" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="J13" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="K13" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L13" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="M13" s="19" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
         <x:v>162</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
       <x:c r="B14" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="18" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>164</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>165</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
       <x:c r="B15" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>166</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="K15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="M15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="N15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="P15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q15" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:36">
       <x:c r="B16" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C16" s="18" t="s">
-        <x:v>167</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>168</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>169</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>170</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>171</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>172</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>173</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>174</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>175</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>176</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
       <x:c r="B17" s="14" t="s">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="18" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>178</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>179</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>180</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>181</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
       <x:c r="B18" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="18" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F18" s="19" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="G18" s="19" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="H18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K18" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L18" s="19" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="D18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F18" s="19" t="s">
+      <x:c r="M18" s="19" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="G18" s="19" t="s">
+      <x:c r="N18" s="19" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="H18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="I18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="J18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="K18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L18" s="19" t="s">
+      <x:c r="O18" s="19" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="M18" s="19" t="s">
+      <x:c r="P18" s="19" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="N18" s="19" t="s">
+      <x:c r="Q18" s="19" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="O18" s="19" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="P18" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="Q18" s="19" t="s">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
       <x:c r="B19" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="18" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="D19" s="19" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="D19" s="19" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>189</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:36">
       <x:c r="B20" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="18" t="s">
-        <x:v>190</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E20" s="19" t="s">
-        <x:v>191</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G20" s="19" t="s">
-        <x:v>192</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I20" s="19" t="s">
-        <x:v>193</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M20" s="19" t="s">
-        <x:v>194</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="N20" s="19" t="s">
-        <x:v>195</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="O20" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="P20" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="Q20" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:36">
       <x:c r="B21" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C21" s="18" t="s">
-        <x:v>196</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D21" s="19" t="s">
-        <x:v>197</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E21" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F21" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G21" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H21" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I21" s="19" t="s">
-        <x:v>198</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J21" s="19" t="s">
-        <x:v>199</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L21" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="P21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="Q21" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:36">
       <x:c r="B22" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C22" s="18" t="s">
-        <x:v>200</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D22" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E22" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F22" s="19" t="s">
-        <x:v>201</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G22" s="19" t="s">
-        <x:v>202</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H22" s="19" t="s">
-        <x:v>203</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I22" s="19" t="s">
-        <x:v>204</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J22" s="19" t="s">
-        <x:v>205</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K22" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L22" s="19" t="s">
-        <x:v>207</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M22" s="19" t="s">
-        <x:v>208</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N22" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O22" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P22" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
       <x:c r="B23" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J23" s="19" t="s">
-        <x:v>210</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K23" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L23" s="19" t="s">
-        <x:v>212</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M23" s="19" t="s">
-        <x:v>213</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N23" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O23" s="19" t="s">
-        <x:v>214</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="Q23" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:36">
       <x:c r="B24" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>217</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>218</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>219</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>220</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:36">
       <x:c r="B25" s="14" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="19" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F25" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G25" s="19" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H25" s="19" t="s">
-        <x:v>224</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="J25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:36">
       <x:c r="B26" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>225</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="J26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="K26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>226</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>227</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>228</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
       <x:c r="B27" s="14" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="Q27" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:36">
       <x:c r="B28" s="14" t="s">
-        <x:v>29</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="K28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="L28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="M28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="N28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
       <x:c r="B29" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="L29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="O29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="Q29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:36">
       <x:c r="B30" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="F30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="H30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:36">
       <x:c r="B31" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="M31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -4760,49 +5190,49 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -4810,49 +5240,49 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -4860,49 +5290,49 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
@@ -4910,49 +5340,49 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
@@ -4960,49 +5390,49 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C36" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q36" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:36">
@@ -5010,49 +5440,49 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C37" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q37" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:36">
@@ -5060,49 +5490,49 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C38" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D38" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E38" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q38" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:36">
@@ -5110,49 +5540,49 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C39" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q39" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:36">
@@ -5160,49 +5590,49 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C40" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q40" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:36">
@@ -5210,49 +5640,49 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C41" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q41" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:36">
@@ -5260,49 +5690,49 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C42" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q42" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:36">
@@ -5310,49 +5740,49 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C43" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D43" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E43" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F43" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G43" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q43" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:36">
@@ -5360,49 +5790,49 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C44" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q44" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:36">
@@ -5410,49 +5840,49 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C45" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q45" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:36">
@@ -5460,49 +5890,49 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C46" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q46" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:36">
@@ -5510,49 +5940,49 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C47" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q47" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:36">
@@ -5560,49 +5990,49 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C48" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q48" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:36">
@@ -5610,49 +6040,49 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C49" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q49" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:36">
@@ -5660,49 +6090,49 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C50" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q50" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:36">
@@ -5710,49 +6140,49 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C51" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q51" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:36">
@@ -5760,49 +6190,49 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C52" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q52" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:36">
@@ -5810,49 +6240,49 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q53" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:36">
@@ -5860,49 +6290,49 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C54" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q54" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:36">
@@ -5910,49 +6340,49 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C55" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K55" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q55" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:36">
@@ -5960,49 +6390,49 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C56" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q56" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:36">
@@ -6010,49 +6440,49 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C57" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q57" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:36">
@@ -6060,49 +6490,49 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C58" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q58" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:36">
@@ -6110,49 +6540,49 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C59" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K59" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q59" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:36">
@@ -6160,49 +6590,49 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C60" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q60" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:36">
@@ -6210,49 +6640,49 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C61" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q61" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:36">
@@ -6260,49 +6690,49 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C62" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J62" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q62" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:36">
@@ -6310,49 +6740,49 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C63" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G63" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H63" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I63" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="J63" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K63" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="L63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q63" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:36">
@@ -6360,49 +6790,299 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C64" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="J64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="L64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="M64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="O64" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="Q64" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:36">
+      <x:c r="B65" s="14" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C65" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q65" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:36">
+      <x:c r="B66" s="14" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C66" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q66" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:36">
+      <x:c r="B67" s="14" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C67" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J67" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q67" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:36">
+      <x:c r="B68" s="14" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C68" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G68" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H68" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I68" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J68" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="K68" s="19" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q68" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:36">
+      <x:c r="B69" s="14" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C69" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="J69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="L69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="M69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="N69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="P69" s="19" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q69" s="19" t="s">
+        <x:v>75</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
